--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
@@ -5217,11 +5217,11 @@
         </is>
       </c>
       <c r="I92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K92" s="2" t="b">
@@ -5269,11 +5269,11 @@
         </is>
       </c>
       <c r="I93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K93" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -10221,57 +10221,57 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>16</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>3</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>16</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" t="n">
         <v>4</v>
       </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>16</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>16</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>6</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>19</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>4</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>19</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>5</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
+      <c r="F342" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>19</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>6</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
+      <c r="F343" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>19</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>7</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
+      <c r="E344" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>19</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>8</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
@@ -5217,11 +5217,11 @@
         </is>
       </c>
       <c r="I92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K92" s="2" t="b">
@@ -5269,11 +5269,11 @@
         </is>
       </c>
       <c r="I93" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K93" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10197,81 +10197,81 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>5</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>16</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
+      <c r="F342" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
+      <c r="F343" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E344" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
